--- a/biology/Médecine/Processus_pyramidal_de_l'os_palatin/Processus_pyramidal_de_l'os_palatin.xlsx
+++ b/biology/Médecine/Processus_pyramidal_de_l'os_palatin/Processus_pyramidal_de_l'os_palatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_pyramidal_de_l%27os_palatin</t>
+          <t>Processus_pyramidal_de_l'os_palatin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus pyramidal de l'os palatin (ou apophyse pyramidale du palatin) est une saillie en forme de pyramide triangulaire. Il se projette vers l'arrière et latéralement à partir de la jonction des lames horizontale et perpendiculaire de l'os palatin.
 Sa  face postérieure est une zone lisse et triangulaire, limitée de part et d'autre par un sillon articulaire rugueux. Le sillon s'articule avec les lames du processus ptérygoïde. La zone intermédiaire rainurée complète la partie inférieure de la fosse ptérygoïde et donne origine à quelques fibres du muscle ptérygoïdien médial.
